--- a/packages/windmill/external-bin/janitor/extra_files-2025-02-17.xlsx
+++ b/packages/windmill/external-bin/janitor/extra_files-2025-02-17.xlsx
@@ -18319,7 +18319,7 @@
         <v>118</v>
       </c>
       <c r="C86" s="33">
-        <v>9.1060019E7</v>
+        <v>9106019.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -18330,7 +18330,7 @@
         <v>255</v>
       </c>
       <c r="C87" s="33">
-        <v>9.1060019E7</v>
+        <v>9106019.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -18341,7 +18341,7 @@
         <v>256</v>
       </c>
       <c r="C88" s="33">
-        <v>9.1060019E7</v>
+        <v>9106019.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -18352,7 +18352,7 @@
         <v>257</v>
       </c>
       <c r="C89" s="33">
-        <v>9.1060019E7</v>
+        <v>9106019.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -18363,7 +18363,7 @@
         <v>258</v>
       </c>
       <c r="C90" s="33">
-        <v>9.1060019E7</v>
+        <v>9106019.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
